--- a/sample/sampleoperator.xlsx
+++ b/sample/sampleoperator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\cnc\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A2F84B8E-2CA8-4605-A5E9-72DC123B5C27}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE4906-704B-4ABF-8EF5-94CA58724FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15600" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Operator Name</t>
   </si>
   <si>
-    <t>Diff%</t>
+    <t>Req. Production Qty</t>
+  </si>
+  <si>
+    <t>Actual Production Qty</t>
+  </si>
+  <si>
+    <t>Turning Rejection</t>
+  </si>
+  <si>
+    <t>Variations</t>
+  </si>
+  <si>
+    <t>Rework</t>
+  </si>
+  <si>
+    <t>Diff. %</t>
+  </si>
+  <si>
+    <t>Report Name :- Operator Report</t>
   </si>
 </sst>
 </file>
@@ -154,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -218,15 +239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>112617</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88769</xdr:rowOff>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>170174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -242,21 +263,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="590550"/>
-          <a:ext cx="1619250" cy="450719"/>
+          <a:off x="112617" y="200025"/>
+          <a:ext cx="1325658" cy="1113149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,14 +613,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="1" customWidth="1"/>
-    <col min="3" max="16" width="12.28515625" style="1"/>
+    <col min="1" max="1" width="38.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="16" width="12.28515625" style="1"/>
     <col min="17" max="17" width="12.28515625" style="5"/>
     <col min="18" max="18" width="12.28515625" style="2"/>
     <col min="19" max="19" width="12.28515625" style="5"/>
@@ -614,46 +638,68 @@
     <col min="43" max="16384" width="12.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="7"/>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/sample/sampleoperator.xlsx
+++ b/sample/sampleoperator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\cnc\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE4906-704B-4ABF-8EF5-94CA58724FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6A568-DB3B-4703-9A42-602E3A4BF95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,10 +40,10 @@
     <t>Rework</t>
   </si>
   <si>
-    <t>Diff. %</t>
+    <t>Report Name :- Operator Report</t>
   </si>
   <si>
-    <t>Report Name :- Operator Report</t>
+    <t>Production Percentage</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
     <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
     <col min="8" max="16" width="12.28515625" style="1"/>
     <col min="17" max="17" width="12.28515625" style="5"/>
     <col min="18" max="18" width="12.28515625" style="2"/>
@@ -654,7 +654,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="D4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
